--- a/control.xlsx
+++ b/control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Code\CPU\riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5210CE-FFEC-4C17-B084-5DB02913506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FD43F5-B49E-4C31-8A3F-62A124AF7087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="1905" windowWidth="24435" windowHeight="15345" xr2:uid="{37F6DEEB-B970-4275-8B92-A603B014518A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{37F6DEEB-B970-4275-8B92-A603B014518A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>lui</t>
   </si>
@@ -270,15 +270,6 @@
   </si>
   <si>
     <t>PCSrc (discards bit 0)</t>
-  </si>
-  <si>
-    <t>PARTIALLY</t>
-  </si>
-  <si>
-    <t>TESTED?</t>
-  </si>
-  <si>
-    <t>SOMEWHAT</t>
   </si>
 </sst>
 </file>
@@ -650,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E4F545-7104-40E6-9C02-D4AB6CEEFCB7}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +660,7 @@
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -700,11 +691,8 @@
       <c r="K1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -721,7 +709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -741,7 +729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -757,11 +745,8 @@
       <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -778,7 +763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -795,7 +780,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -812,7 +797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -829,7 +814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -846,7 +831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -863,7 +848,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -880,7 +865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -897,7 +882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -908,7 +893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -919,7 +904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -930,7 +915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -941,7 +926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -952,7 +937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -963,7 +948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -974,7 +959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -985,7 +970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -996,7 +981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1030,7 +1015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1053,7 +1038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1076,7 +1061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1122,7 +1107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1142,7 +1127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1162,7 +1147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1182,7 +1167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1195,11 +1180,8 @@
       <c r="K31" t="s">
         <v>76</v>
       </c>
-      <c r="M31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
